--- a/ozone/multistate/test_ozone_VTZP_MS_2_energies.xlsx
+++ b/ozone/multistate/test_ozone_VTZP_MS_2_energies.xlsx
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.5844378405136479</v>
+        <v>-0.5844443933834429</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5849440097808838</v>
+        <v>-0.5855915546417236</v>
       </c>
       <c r="F2" t="n">
         <v>-225.20852964</v>
@@ -499,7 +499,7 @@
         <v>-224.62408469</v>
       </c>
       <c r="H2" t="n">
-        <v>-225.2090286997809</v>
+        <v>-225.2096762446417</v>
       </c>
     </row>
     <row r="3">
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.5850512382814476</v>
+        <v>-0.5850651647495438</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5850254893302917</v>
+        <v>-0.586528480052948</v>
       </c>
       <c r="F3" t="n">
         <v>-225.20644765</v>
@@ -531,7 +531,7 @@
         <v>-224.62138401</v>
       </c>
       <c r="H3" t="n">
-        <v>-225.2064094993303</v>
+        <v>-225.207912490053</v>
       </c>
     </row>
     <row r="4">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.5944968198340288</v>
+        <v>-0.5944982671854173</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.594871997833252</v>
+        <v>-0.5934002995491028</v>
       </c>
       <c r="F4" t="n">
         <v>-225.18319256</v>
@@ -563,7 +563,7 @@
         <v>-224.58869621</v>
       </c>
       <c r="H4" t="n">
-        <v>-225.1835682078332</v>
+        <v>-225.1820965095491</v>
       </c>
     </row>
     <row r="5">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.5832303171705938</v>
+        <v>-0.5832379419709071</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.5817697048187256</v>
+        <v>-0.5839605331420898</v>
       </c>
       <c r="F5" t="n">
         <v>-225.21241483</v>
@@ -595,7 +595,7 @@
         <v>-224.62917459</v>
       </c>
       <c r="H5" t="n">
-        <v>-225.2109442948187</v>
+        <v>-225.2131351231421</v>
       </c>
     </row>
     <row r="6">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.5809416065023807</v>
+        <v>-0.5809465469479564</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.5805407166481018</v>
+        <v>-0.5805483460426331</v>
       </c>
       <c r="F6" t="n">
         <v>-225.21888244</v>
@@ -627,7 +627,7 @@
         <v>-224.63793761</v>
       </c>
       <c r="H6" t="n">
-        <v>-225.2184783266481</v>
+        <v>-225.2184859560426</v>
       </c>
     </row>
     <row r="7">
@@ -650,7 +650,7 @@
         <v>-0.6021982771607763</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.6035024523735046</v>
+        <v>-0.5976311564445496</v>
       </c>
       <c r="F7" t="n">
         <v>-225.1684482</v>
@@ -659,7 +659,7 @@
         <v>-224.56625378</v>
       </c>
       <c r="H7" t="n">
-        <v>-225.1697562323735</v>
+        <v>-225.1638849364446</v>
       </c>
     </row>
     <row r="8">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.582069077240885</v>
+        <v>-0.5820756082213642</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.5814061164855957</v>
+        <v>-0.5828087329864502</v>
       </c>
       <c r="F8" t="n">
         <v>-225.2158834</v>
@@ -691,7 +691,7 @@
         <v>-224.63380845</v>
       </c>
       <c r="H8" t="n">
-        <v>-225.2152145664856</v>
+        <v>-225.2166171829865</v>
       </c>
     </row>
     <row r="9">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.5852569700254946</v>
+        <v>-0.5852734604657354</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5861800909042358</v>
+        <v>-0.5870445966720581</v>
       </c>
       <c r="F9" t="n">
         <v>-225.20573475</v>
@@ -723,7 +723,7 @@
         <v>-224.62046224</v>
       </c>
       <c r="H9" t="n">
-        <v>-225.2066423309042</v>
+        <v>-225.2075068366721</v>
       </c>
     </row>
     <row r="10">
@@ -746,7 +746,7 @@
         <v>-0.5778998060541484</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5735577344894409</v>
+        <v>-0.5767770409584045</v>
       </c>
       <c r="F10" t="n">
         <v>-225.22435368</v>
@@ -755,7 +755,7 @@
         <v>-224.64645366</v>
       </c>
       <c r="H10" t="n">
-        <v>-225.2200113944894</v>
+        <v>-225.2232307009584</v>
       </c>
     </row>
     <row r="11">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-0.5692699580403184</v>
+        <v>-0.5692691915761285</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5698668360710144</v>
+        <v>-0.5657748579978943</v>
       </c>
       <c r="F11" t="n">
         <v>-225.23773336</v>
@@ -787,7 +787,7 @@
         <v>-224.66846191</v>
       </c>
       <c r="H11" t="n">
-        <v>-225.238328746071</v>
+        <v>-225.2342367679979</v>
       </c>
     </row>
     <row r="12">
@@ -807,10 +807,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-0.5692554381663139</v>
+        <v>-0.5692472607425139</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5740541219711304</v>
+        <v>-0.5738700032234192</v>
       </c>
       <c r="F12" t="n">
         <v>-225.22228374</v>
@@ -819,7 +819,7 @@
         <v>-224.6530356</v>
       </c>
       <c r="H12" t="n">
-        <v>-225.2270897219711</v>
+        <v>-225.2269056032234</v>
       </c>
     </row>
     <row r="13">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.5691579385941228</v>
+        <v>-0.5691540409859213</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.5689725875854492</v>
+        <v>-0.566400408744812</v>
       </c>
       <c r="F13" t="n">
         <v>-225.22967772</v>
@@ -851,7 +851,7 @@
         <v>-224.6605213</v>
       </c>
       <c r="H13" t="n">
-        <v>-225.2294938875854</v>
+        <v>-225.2269217087448</v>
       </c>
     </row>
     <row r="14">
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.5691979308982993</v>
+        <v>-0.5691918489368993</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.5702632665634155</v>
+        <v>-0.5667951107025146</v>
       </c>
       <c r="F14" t="n">
         <v>-225.22576341</v>
@@ -883,7 +883,7 @@
         <v>-224.65657161</v>
       </c>
       <c r="H14" t="n">
-        <v>-225.2268348765634</v>
+        <v>-225.2233667207025</v>
       </c>
     </row>
     <row r="15">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.5885822272323176</v>
+        <v>-0.5885919897261747</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.5907958745956421</v>
+        <v>-0.591404914855957</v>
       </c>
       <c r="F15" t="n">
         <v>-225.19412111</v>
@@ -915,7 +915,7 @@
         <v>-224.60552771</v>
       </c>
       <c r="H15" t="n">
-        <v>-225.1963235845956</v>
+        <v>-225.1969326248559</v>
       </c>
     </row>
     <row r="16">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-0.5692927821742577</v>
+        <v>-0.5692920552206477</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.5684881210327148</v>
+        <v>-0.563633918762207</v>
       </c>
       <c r="F16" t="n">
         <v>-225.23812536</v>
@@ -947,7 +947,7 @@
         <v>-224.66883293</v>
       </c>
       <c r="H16" t="n">
-        <v>-225.2373210510327</v>
+        <v>-225.2324668487622</v>
       </c>
     </row>
     <row r="17">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.5691697081517294</v>
+        <v>-0.5691649920087292</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.5675500631332397</v>
+        <v>-0.5698806047439575</v>
       </c>
       <c r="F17" t="n">
         <v>-225.22817192</v>
@@ -979,7 +979,7 @@
         <v>-224.65900615</v>
       </c>
       <c r="H17" t="n">
-        <v>-225.2265562131333</v>
+        <v>-225.228886754744</v>
       </c>
     </row>
     <row r="18">
@@ -999,10 +999,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.5952980924550622</v>
+        <v>-0.5952976827875734</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.5956164598464966</v>
+        <v>-0.5927457809448242</v>
       </c>
       <c r="F18" t="n">
         <v>-225.18074493</v>
@@ -1011,7 +1011,7 @@
         <v>-224.58544462</v>
       </c>
       <c r="H18" t="n">
-        <v>-225.1810610798465</v>
+        <v>-225.1781904009448</v>
       </c>
     </row>
     <row r="19">
@@ -1034,7 +1034,7 @@
         <v>-0.5958567562310827</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.5941656827926636</v>
+        <v>-0.5923159718513489</v>
       </c>
       <c r="F19" t="n">
         <v>-225.17915358</v>
@@ -1043,7 +1043,7 @@
         <v>-224.58329719</v>
       </c>
       <c r="H19" t="n">
-        <v>-225.1774628727927</v>
+        <v>-225.1756131618513</v>
       </c>
     </row>
     <row r="20">
@@ -1066,7 +1066,7 @@
         <v>-0.5772090242997211</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.5798326134681702</v>
+        <v>-0.5739229917526245</v>
       </c>
       <c r="F20" t="n">
         <v>-225.22488905</v>
@@ -1075,7 +1075,7 @@
         <v>-224.64768053</v>
       </c>
       <c r="H20" t="n">
-        <v>-225.2275131434682</v>
+        <v>-225.2216035217526</v>
       </c>
     </row>
     <row r="21">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.5937270755555346</v>
+        <v>-0.5937188200199383</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.5975440740585327</v>
+        <v>-0.5925714373588562</v>
       </c>
       <c r="F21" t="n">
         <v>-225.18568661</v>
@@ -1107,7 +1107,7 @@
         <v>-224.59196682</v>
       </c>
       <c r="H21" t="n">
-        <v>-225.1895108940585</v>
+        <v>-225.1845382573589</v>
       </c>
     </row>
     <row r="22">
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.5854663930011287</v>
+        <v>-0.5854830012868019</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.5861454010009766</v>
+        <v>-0.5868821144104004</v>
       </c>
       <c r="F22" t="n">
         <v>-225.20501267</v>
@@ -1139,7 +1139,7 @@
         <v>-224.61952993</v>
       </c>
       <c r="H22" t="n">
-        <v>-225.205675331001</v>
+        <v>-225.2064120444104</v>
       </c>
     </row>
     <row r="23">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.5813146407759028</v>
+        <v>-0.5813175539038806</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.582112729549408</v>
+        <v>-0.5805299878120422</v>
       </c>
       <c r="F23" t="n">
         <v>-225.21793836</v>
@@ -1171,7 +1171,7 @@
         <v>-224.63662049</v>
       </c>
       <c r="H23" t="n">
-        <v>-225.2187332195494</v>
+        <v>-225.2171504778121</v>
       </c>
     </row>
     <row r="24">
@@ -1194,7 +1194,7 @@
         <v>-0.5802116411665545</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.5799524784088135</v>
+        <v>-0.5815852880477905</v>
       </c>
       <c r="F24" t="n">
         <v>-225.22059568</v>
@@ -1203,7 +1203,7 @@
         <v>-224.64038537</v>
       </c>
       <c r="H24" t="n">
-        <v>-225.2203378484088</v>
+        <v>-225.2219706580478</v>
       </c>
     </row>
     <row r="25">
@@ -1226,7 +1226,7 @@
         <v>-0.5787752748077062</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.5718743801116943</v>
+        <v>-0.5728369355201721</v>
       </c>
       <c r="F25" t="n">
         <v>-225.22325661</v>
@@ -1235,7 +1235,7 @@
         <v>-224.64448075</v>
       </c>
       <c r="H25" t="n">
-        <v>-225.2163551301117</v>
+        <v>-225.2173176855202</v>
       </c>
     </row>
     <row r="26">
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-0.5691688067021679</v>
+        <v>-0.5691668040742881</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.5692564845085144</v>
+        <v>-0.5697245597839355</v>
       </c>
       <c r="F26" t="n">
         <v>-225.2336858</v>
@@ -1267,7 +1267,7 @@
         <v>-224.66451978</v>
       </c>
       <c r="H26" t="n">
-        <v>-225.2337762645085</v>
+        <v>-225.2342443397839</v>
       </c>
     </row>
     <row r="27">
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.5859043579008169</v>
+        <v>-0.5859089999690774</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.5866211652755737</v>
+        <v>-0.5872665643692017</v>
       </c>
       <c r="F27" t="n">
         <v>-225.20354284</v>
@@ -1299,7 +1299,7 @@
         <v>-224.61763542</v>
       </c>
       <c r="H27" t="n">
-        <v>-225.2042565852756</v>
+        <v>-225.2049019843692</v>
       </c>
     </row>
     <row r="28">
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-0.5973488264821625</v>
+        <v>-0.597341320276503</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.5971077680587769</v>
+        <v>-0.5993678569793701</v>
       </c>
       <c r="F28" t="n">
         <v>-225.17539167</v>
@@ -1331,7 +1331,7 @@
         <v>-224.57805307</v>
       </c>
       <c r="H28" t="n">
-        <v>-225.1751608380588</v>
+        <v>-225.1774209269794</v>
       </c>
     </row>
     <row r="29">
@@ -1351,10 +1351,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.5976534021724876</v>
+        <v>-0.5976554627038392</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.5963089466094971</v>
+        <v>-0.601252019405365</v>
       </c>
       <c r="F29" t="n">
         <v>-225.17468864</v>
@@ -1363,7 +1363,7 @@
         <v>-224.57703401</v>
       </c>
       <c r="H29" t="n">
-        <v>-225.1733429566095</v>
+        <v>-225.1782860294054</v>
       </c>
     </row>
     <row r="30">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-0.5979709655965815</v>
+        <v>-0.5979802842536841</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.5945841073989868</v>
+        <v>-0.5987156629562378</v>
       </c>
       <c r="F30" t="n">
         <v>-225.17400626</v>
@@ -1395,7 +1395,7 @@
         <v>-224.57602773</v>
       </c>
       <c r="H30" t="n">
-        <v>-225.170611837399</v>
+        <v>-225.1747433929562</v>
       </c>
     </row>
     <row r="31">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.5983062041473097</v>
+        <v>-0.598314151082838</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.5976383686065674</v>
+        <v>-0.5997793674468994</v>
       </c>
       <c r="F31" t="n">
         <v>-225.17334626</v>
@@ -1427,7 +1427,7 @@
         <v>-224.57503543</v>
       </c>
       <c r="H31" t="n">
-        <v>-225.1726737986066</v>
+        <v>-225.1748147974469</v>
       </c>
     </row>
     <row r="32">
@@ -1450,7 +1450,7 @@
         <v>-0.6017549328645111</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.6020530462265015</v>
+        <v>-0.6081901788711548</v>
       </c>
       <c r="F32" t="n">
         <v>-225.16876468</v>
@@ -1459,7 +1459,7 @@
         <v>-224.56701028</v>
       </c>
       <c r="H32" t="n">
-        <v>-225.1690633262265</v>
+        <v>-225.1752004588712</v>
       </c>
     </row>
     <row r="33">
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-0.5824458419606058</v>
+        <v>-0.5824598822472333</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.5796403884887695</v>
+        <v>-0.5823947191238403</v>
       </c>
       <c r="F33" t="n">
         <v>-225.2147768</v>
@@ -1491,7 +1491,7 @@
         <v>-224.63231751</v>
       </c>
       <c r="H33" t="n">
-        <v>-225.2119578984888</v>
+        <v>-225.2147122291238</v>
       </c>
     </row>
     <row r="34">
@@ -1514,7 +1514,7 @@
         <v>-0.59672554525048</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.5988123416900635</v>
+        <v>-0.6019288301467896</v>
       </c>
       <c r="F34" t="n">
         <v>-225.17685194</v>
@@ -1523,7 +1523,7 @@
         <v>-224.5801245</v>
       </c>
       <c r="H34" t="n">
-        <v>-225.1789368416901</v>
+        <v>-225.1820533301468</v>
       </c>
     </row>
     <row r="35">
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-0.5691577709933708</v>
+        <v>-0.5691545917738654</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.5674319267272949</v>
+        <v>-0.562870979309082</v>
       </c>
       <c r="F35" t="n">
         <v>-225.23110042</v>
@@ -1555,7 +1555,7 @@
         <v>-224.66194689</v>
       </c>
       <c r="H35" t="n">
-        <v>-225.2293788167273</v>
+        <v>-225.2248178693091</v>
       </c>
     </row>
     <row r="36">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.5691639270859976</v>
+        <v>-0.5691596227142874</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.5710035562515259</v>
+        <v>-0.5654280185699463</v>
       </c>
       <c r="F36" t="n">
         <v>-225.22893494</v>
@@ -1587,7 +1587,7 @@
         <v>-224.65977488</v>
       </c>
       <c r="H36" t="n">
-        <v>-225.2307784362515</v>
+        <v>-225.2252028985699</v>
       </c>
     </row>
     <row r="37">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-0.5692737622846582</v>
+        <v>-0.5692650192483583</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.5718382000923157</v>
+        <v>-0.5716933608055115</v>
       </c>
       <c r="F37" t="n">
         <v>-225.22136754</v>
@@ -1619,7 +1619,7 @@
         <v>-224.65210142</v>
       </c>
       <c r="H37" t="n">
-        <v>-225.2239396200923</v>
+        <v>-225.2237947808055</v>
       </c>
     </row>
     <row r="38">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-0.5761849764741132</v>
+        <v>-0.5761808993374131</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.5784556865692139</v>
+        <v>-0.5779553651809692</v>
       </c>
       <c r="F38" t="n">
         <v>-225.22507684</v>
@@ -1651,7 +1651,7 @@
         <v>-224.64889561</v>
       </c>
       <c r="H38" t="n">
-        <v>-225.2273512965692</v>
+        <v>-225.226850975181</v>
       </c>
     </row>
     <row r="39">
@@ -1671,10 +1671,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-0.5760116326999768</v>
+        <v>-0.5760097532830768</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.5814727544784546</v>
+        <v>-0.5769151449203491</v>
       </c>
       <c r="F39" t="n">
         <v>-225.22503237</v>
@@ -1683,7 +1683,7 @@
         <v>-224.64902165</v>
       </c>
       <c r="H39" t="n">
-        <v>-225.2304944044785</v>
+        <v>-225.2259367949204</v>
       </c>
     </row>
     <row r="40">
@@ -1706,7 +1706,7 @@
         <v>-0.5917306897797445</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.5944012999534607</v>
+        <v>-0.5928208827972412</v>
       </c>
       <c r="F40" t="n">
         <v>-225.19239218</v>
@@ -1715,7 +1715,7 @@
         <v>-224.60066069</v>
       </c>
       <c r="H40" t="n">
-        <v>-225.1950619899535</v>
+        <v>-225.1934815727973</v>
       </c>
     </row>
     <row r="41">
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-0.5691612405213994</v>
+        <v>-0.5691589741464111</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5709025859832764</v>
+        <v>-0.5706760883331299</v>
       </c>
       <c r="F41" t="n">
         <v>-225.23307246</v>
@@ -1747,7 +1747,7 @@
         <v>-224.66391244</v>
       </c>
       <c r="H41" t="n">
-        <v>-225.2348150259833</v>
+        <v>-225.2345885283331</v>
       </c>
     </row>
     <row r="42">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-0.6035781307688639</v>
+        <v>-0.6035856943684517</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.5793491005897522</v>
+        <v>-0.6037899851799011</v>
       </c>
       <c r="F42" t="n">
         <v>-225.16778748</v>
@@ -1779,7 +1779,7 @@
         <v>-224.56420128</v>
       </c>
       <c r="H42" t="n">
-        <v>-225.1435503805897</v>
+        <v>-225.1679912651799</v>
       </c>
     </row>
     <row r="43">
@@ -1802,7 +1802,7 @@
         <v>-0.5791305812506602</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.5778690576553345</v>
+        <v>-0.5778937339782715</v>
       </c>
       <c r="F43" t="n">
         <v>-225.22269205</v>
@@ -1811,7 +1811,7 @@
         <v>-224.64356178</v>
       </c>
       <c r="H43" t="n">
-        <v>-225.2214308376553</v>
+        <v>-225.2214555139783</v>
       </c>
     </row>
     <row r="44">
@@ -1831,10 +1831,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-0.5691737505307879</v>
+        <v>-0.569171983157408</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.5741437673568726</v>
+        <v>-0.5700141191482544</v>
       </c>
       <c r="F44" t="n">
         <v>-225.23427569</v>
@@ -1843,7 +1843,7 @@
         <v>-224.66510304</v>
       </c>
       <c r="H44" t="n">
-        <v>-225.2392468073569</v>
+        <v>-225.2351171591482</v>
       </c>
     </row>
     <row r="45">
@@ -1863,10 +1863,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-0.5692234451184216</v>
+        <v>-0.5692163489446216</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.5711686611175537</v>
+        <v>-0.5658279657363892</v>
       </c>
       <c r="F45" t="n">
         <v>-225.22406104</v>
@@ -1875,7 +1875,7 @@
         <v>-224.65484415</v>
       </c>
       <c r="H45" t="n">
-        <v>-225.2260128111176</v>
+        <v>-225.2206721157364</v>
       </c>
     </row>
     <row r="46">
@@ -1898,7 +1898,7 @@
         <v>-0.5934659315354383</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.5952768325805664</v>
+        <v>-0.5952033400535583</v>
       </c>
       <c r="F46" t="n">
         <v>-225.18652424</v>
@@ -1907,7 +1907,7 @@
         <v>-224.59305853</v>
       </c>
       <c r="H46" t="n">
-        <v>-225.1883353625806</v>
+        <v>-225.1882618700536</v>
       </c>
     </row>
     <row r="47">
@@ -1927,10 +1927,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-0.5883517076465218</v>
+        <v>-0.58836134433801</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.5911451578140259</v>
+        <v>-0.5886212587356567</v>
       </c>
       <c r="F47" t="n">
         <v>-225.19493786</v>
@@ -1939,7 +1939,7 @@
         <v>-224.60657896</v>
       </c>
       <c r="H47" t="n">
-        <v>-225.197724117814</v>
+        <v>-225.1952002187357</v>
       </c>
     </row>
     <row r="48">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.569179254127228</v>
+        <v>-0.5691741012924281</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.5717538595199585</v>
+        <v>-0.573757529258728</v>
       </c>
       <c r="F48" t="n">
         <v>-225.22738889</v>
@@ -1971,7 +1971,7 @@
         <v>-224.65821598</v>
       </c>
       <c r="H48" t="n">
-        <v>-225.22996983952</v>
+        <v>-225.2319735092587</v>
       </c>
     </row>
     <row r="49">
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-0.5692116087234105</v>
+        <v>-0.5692050217547605</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.5716919898986816</v>
+        <v>-0.5708475708961487</v>
       </c>
       <c r="F49" t="n">
         <v>-225.22492179</v>
@@ -2003,7 +2003,7 @@
         <v>-224.65571823</v>
       </c>
       <c r="H49" t="n">
-        <v>-225.2274102198987</v>
+        <v>-225.2265658008961</v>
       </c>
     </row>
     <row r="50">
@@ -2023,10 +2023,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-0.5939717705906014</v>
+        <v>-0.5939749249832768</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.5938631892204285</v>
+        <v>-0.592848539352417</v>
       </c>
       <c r="F50" t="n">
         <v>-225.18485194</v>
@@ -2035,7 +2035,7 @@
         <v>-224.5908758</v>
       </c>
       <c r="H50" t="n">
-        <v>-225.1847389892204</v>
+        <v>-225.1837243393524</v>
       </c>
     </row>
     <row r="51">
@@ -2058,7 +2058,7 @@
         <v>-0.5924645164481037</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.5904099345207214</v>
+        <v>-0.5930885672569275</v>
       </c>
       <c r="F51" t="n">
         <v>-225.18988267</v>
@@ -2067,7 +2067,7 @@
         <v>-224.5974156</v>
       </c>
       <c r="H51" t="n">
-        <v>-225.1878255345207</v>
+        <v>-225.1905041672569</v>
       </c>
     </row>
     <row r="52">
@@ -2090,7 +2090,7 @@
         <v>-0.5782465965153363</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.5745824575424194</v>
+        <v>-0.5745196342468262</v>
       </c>
       <c r="F52" t="n">
         <v>-225.22397014</v>
@@ -2099,7 +2099,7 @@
         <v>-224.64572149</v>
       </c>
       <c r="H52" t="n">
-        <v>-225.2203039475424</v>
+        <v>-225.2202411242468</v>
       </c>
     </row>
     <row r="53">
@@ -2119,10 +2119,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-0.5942334148317785</v>
+        <v>-0.594235716042625</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5935648083686829</v>
+        <v>-0.5925416946411133</v>
       </c>
       <c r="F53" t="n">
         <v>-225.18402024</v>
@@ -2131,7 +2131,7 @@
         <v>-224.58978534</v>
       </c>
       <c r="H53" t="n">
-        <v>-225.1833501483687</v>
+        <v>-225.1823270346411</v>
       </c>
     </row>
     <row r="54">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.5955687824373126</v>
+        <v>-0.5955782485856544</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5968621969223022</v>
+        <v>-0.5935949683189392</v>
       </c>
       <c r="F54" t="n">
         <v>-225.17994472</v>
@@ -2163,7 +2163,7 @@
         <v>-224.58436836</v>
       </c>
       <c r="H54" t="n">
-        <v>-225.1812305569223</v>
+        <v>-225.177963328319</v>
       </c>
     </row>
     <row r="55">
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-0.5693182901201141</v>
+        <v>-0.5693175800731842</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5693718791007996</v>
+        <v>-0.5681045055389404</v>
       </c>
       <c r="F55" t="n">
         <v>-225.23849069</v>
@@ -2195,7 +2195,7 @@
         <v>-224.66917521</v>
       </c>
       <c r="H55" t="n">
-        <v>-225.2385470891008</v>
+        <v>-225.2372797155389</v>
       </c>
     </row>
     <row r="56">
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-0.6072074039085508</v>
+        <v>-0.6072089145845665</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5951952338218689</v>
+        <v>-0.598624587059021</v>
       </c>
       <c r="F56" t="n">
         <v>-225.16815343</v>
@@ -2227,7 +2227,7 @@
         <v>-224.56094549</v>
       </c>
       <c r="H56" t="n">
-        <v>-225.1561407238219</v>
+        <v>-225.159570077059</v>
       </c>
     </row>
     <row r="57">
@@ -2247,10 +2247,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-0.5691936681209288</v>
+        <v>-0.5691923195126389</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.570218563079834</v>
+        <v>-0.5695806741714478</v>
       </c>
       <c r="F57" t="n">
         <v>-225.23538672</v>
@@ -2259,7 +2259,7 @@
         <v>-224.66619376</v>
       </c>
       <c r="H57" t="n">
-        <v>-225.2364123230798</v>
+        <v>-225.2357744341714</v>
       </c>
     </row>
     <row r="58">
@@ -2279,10 +2279,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.5691558591935679</v>
+        <v>-0.5691523331678452</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.5680497884750366</v>
+        <v>-0.5669126510620117</v>
       </c>
       <c r="F58" t="n">
         <v>-225.23039978</v>
@@ -2291,7 +2291,7 @@
         <v>-224.66124548</v>
       </c>
       <c r="H58" t="n">
-        <v>-225.229295268475</v>
+        <v>-225.228158131062</v>
       </c>
     </row>
     <row r="59">
@@ -2314,7 +2314,7 @@
         <v>-0.5803904122558706</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5784416198730469</v>
+        <v>-0.5812172293663025</v>
       </c>
       <c r="F59" t="n">
         <v>-225.22019038</v>
@@ -2323,7 +2323,7 @@
         <v>-224.63979741</v>
       </c>
       <c r="H59" t="n">
-        <v>-225.218239029873</v>
+        <v>-225.2210146393663</v>
       </c>
     </row>
     <row r="60">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-0.5691598707681462</v>
+        <v>-0.5691573355587221</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5702416896820068</v>
+        <v>-0.5692521333694458</v>
       </c>
       <c r="F60" t="n">
         <v>-225.23243749</v>
@@ -2355,7 +2355,7 @@
         <v>-224.66328101</v>
       </c>
       <c r="H60" t="n">
-        <v>-225.233522699682</v>
+        <v>-225.2325331433694</v>
       </c>
     </row>
     <row r="61">
@@ -2378,7 +2378,7 @@
         <v>-0.5912473520580965</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5937330722808838</v>
+        <v>-0.5919865369796753</v>
       </c>
       <c r="F61" t="n">
         <v>-225.1940518</v>
@@ -2387,7 +2387,7 @@
         <v>-224.60280658</v>
       </c>
       <c r="H61" t="n">
-        <v>-225.1965396522809</v>
+        <v>-225.1947931169797</v>
       </c>
     </row>
     <row r="62">
@@ -2410,7 +2410,7 @@
         <v>-0.5798481283948809</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5797019004821777</v>
+        <v>-0.5813236236572266</v>
       </c>
       <c r="F62" t="n">
         <v>-225.22135942</v>
@@ -2419,7 +2419,7 @@
         <v>-224.64151206</v>
       </c>
       <c r="H62" t="n">
-        <v>-225.2212139604822</v>
+        <v>-225.2228356836572</v>
       </c>
     </row>
     <row r="63">
@@ -2439,10 +2439,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-0.601333385681995</v>
+        <v>-0.601324521125877</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6023786664009094</v>
+        <v>-0.6084752678871155</v>
       </c>
       <c r="F63" t="n">
         <v>-225.16912558</v>
@@ -2451,7 +2451,7 @@
         <v>-224.56779948</v>
       </c>
       <c r="H63" t="n">
-        <v>-225.1701781464009</v>
+        <v>-225.1762747478871</v>
       </c>
     </row>
     <row r="64">
@@ -2471,10 +2471,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-0.5754946085743603</v>
+        <v>-0.5754995942750604</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5697845220565796</v>
+        <v>-0.5703179836273193</v>
       </c>
       <c r="F64" t="n">
         <v>-225.22476309</v>
@@ -2483,7 +2483,7 @@
         <v>-224.64926272</v>
       </c>
       <c r="H64" t="n">
-        <v>-225.2190472420566</v>
+        <v>-225.2195807036273</v>
       </c>
     </row>
     <row r="65">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>-0.5840348023928457</v>
+        <v>-0.5840366327644471</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.5848803520202637</v>
+        <v>-0.5862189531326294</v>
       </c>
       <c r="F65" t="n">
         <v>-225.20986761</v>
@@ -2515,7 +2515,7 @@
         <v>-224.62582883</v>
       </c>
       <c r="H65" t="n">
-        <v>-225.2107091820203</v>
+        <v>-225.2120477831326</v>
       </c>
     </row>
     <row r="66">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-0.5861246442788257</v>
+        <v>-0.5861231834755702</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.5846160650253296</v>
+        <v>-0.5859444141387939</v>
       </c>
       <c r="F66" t="n">
         <v>-225.20279546</v>
@@ -2547,7 +2547,7 @@
         <v>-224.61667352</v>
       </c>
       <c r="H66" t="n">
-        <v>-225.2012895850253</v>
+        <v>-225.2026179341388</v>
       </c>
     </row>
     <row r="67">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-0.605076588145987</v>
+        <v>-0.6050813156739849</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.591009259223938</v>
+        <v>-0.5978453159332275</v>
       </c>
       <c r="F67" t="n">
         <v>-225.16759967</v>
@@ -2579,7 +2579,7 @@
         <v>-224.56251984</v>
       </c>
       <c r="H67" t="n">
-        <v>-225.1535290992239</v>
+        <v>-225.1603651559332</v>
       </c>
     </row>
     <row r="68">
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>-0.5834310887468086</v>
+        <v>-0.5834386743948833</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5827980637550354</v>
+        <v>-0.5802625417709351</v>
       </c>
       <c r="F68" t="n">
         <v>-225.21179484</v>
@@ -2611,7 +2611,7 @@
         <v>-224.62835667</v>
       </c>
       <c r="H68" t="n">
-        <v>-225.211154733755</v>
+        <v>-225.2086192117709</v>
       </c>
     </row>
     <row r="69">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>-0.6061221290601639</v>
+        <v>-0.6061251729864396</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6101484298706055</v>
+        <v>-0.6018636226654053</v>
       </c>
       <c r="F69" t="n">
         <v>-225.16775702</v>
@@ -2643,7 +2643,7 @@
         <v>-224.5616317</v>
       </c>
       <c r="H69" t="n">
-        <v>-225.1717801298706</v>
+        <v>-225.1634953226654</v>
       </c>
     </row>
     <row r="70">
@@ -2666,7 +2666,7 @@
         <v>-0.5768650210016952</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.5783692598342896</v>
+        <v>-0.5769423842430115</v>
       </c>
       <c r="F70" t="n">
         <v>-225.22503612</v>
@@ -2675,7 +2675,7 @@
         <v>-224.64817116</v>
       </c>
       <c r="H70" t="n">
-        <v>-225.2265404198343</v>
+        <v>-225.225113544243</v>
       </c>
     </row>
     <row r="71">
@@ -2698,7 +2698,7 @@
         <v>-0.5800297942010763</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.5808438062667847</v>
+        <v>-0.581492006778717</v>
       </c>
       <c r="F71" t="n">
         <v>-225.22098542</v>
@@ -2707,7 +2707,7 @@
         <v>-224.64095695</v>
       </c>
       <c r="H71" t="n">
-        <v>-225.2218007562668</v>
+        <v>-225.2224489567787</v>
       </c>
     </row>
     <row r="72">
@@ -2727,10 +2727,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.5758389395695441</v>
+        <v>-0.5758393135125441</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.574329137802124</v>
+        <v>-0.5699821710586548</v>
       </c>
       <c r="F72" t="n">
         <v>-225.22496543</v>
@@ -2739,7 +2739,7 @@
         <v>-224.6491251</v>
       </c>
       <c r="H72" t="n">
-        <v>-225.2234542378021</v>
+        <v>-225.2191072710586</v>
       </c>
     </row>
     <row r="73">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.5818815013915423</v>
+        <v>-0.5818841677327737</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.5849273204803467</v>
+        <v>-0.5794974565505981</v>
       </c>
       <c r="F73" t="n">
         <v>-225.21641753</v>
@@ -2771,7 +2771,7 @@
         <v>-224.63453319</v>
       </c>
       <c r="H73" t="n">
-        <v>-225.2194605104804</v>
+        <v>-225.2140306465506</v>
       </c>
     </row>
     <row r="74">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-0.5867705660319407</v>
+        <v>-0.5867792503246589</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.59029221534729</v>
+        <v>-0.5888599753379822</v>
       </c>
       <c r="F74" t="n">
         <v>-225.20050685</v>
@@ -2803,7 +2803,7 @@
         <v>-224.61373229</v>
       </c>
       <c r="H74" t="n">
-        <v>-225.2040245053473</v>
+        <v>-225.202592265338</v>
       </c>
     </row>
     <row r="75">
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-0.5751516043107291</v>
+        <v>-0.575161375531229</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.5704421401023865</v>
+        <v>-0.5890374183654785</v>
       </c>
       <c r="F75" t="n">
         <v>-225.22446623</v>
@@ -2835,7 +2835,7 @@
         <v>-224.64930656</v>
       </c>
       <c r="H75" t="n">
-        <v>-225.2197487001024</v>
+        <v>-225.2383439783655</v>
       </c>
     </row>
     <row r="76">
@@ -2855,10 +2855,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>-0.5691547619814346</v>
+        <v>-0.5691519210177122</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5680456757545471</v>
+        <v>-0.5678900480270386</v>
       </c>
       <c r="F76" t="n">
         <v>-225.23177976</v>
@@ -2867,7 +2867,7 @@
         <v>-224.66262553</v>
       </c>
       <c r="H76" t="n">
-        <v>-225.2306712057546</v>
+        <v>-225.2305155780271</v>
       </c>
     </row>
     <row r="77">
@@ -2887,10 +2887,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-0.5692954744789759</v>
+        <v>-0.5692861357066099</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5704119205474854</v>
+        <v>-0.5688267946243286</v>
       </c>
       <c r="F77" t="n">
         <v>-225.22043341</v>
@@ -2899,7 +2899,7 @@
         <v>-224.65114774</v>
       </c>
       <c r="H77" t="n">
-        <v>-225.2215596605475</v>
+        <v>-225.2199745346243</v>
       </c>
     </row>
     <row r="78">
@@ -2922,7 +2922,7 @@
         <v>-0.5775532285855831</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5755628347396851</v>
+        <v>-0.5771713256835938</v>
       </c>
       <c r="F78" t="n">
         <v>-225.22466072</v>
@@ -2931,7 +2931,7 @@
         <v>-224.64710734</v>
       </c>
       <c r="H78" t="n">
-        <v>-225.2226701747397</v>
+        <v>-225.2242786656836</v>
       </c>
     </row>
     <row r="79">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.5848408613366316</v>
+        <v>-0.584852296252595</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.5868449211120605</v>
+        <v>-0.586413562297821</v>
       </c>
       <c r="F79" t="n">
         <v>-225.2071513</v>
@@ -2963,7 +2963,7 @@
         <v>-224.62229509</v>
       </c>
       <c r="H79" t="n">
-        <v>-225.2091400111121</v>
+        <v>-225.2087086522978</v>
       </c>
     </row>
     <row r="80">
@@ -2983,10 +2983,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-0.5692056004207047</v>
+        <v>-0.5692044085634345</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5728515982627869</v>
+        <v>-0.5680771470069885</v>
       </c>
       <c r="F80" t="n">
         <v>-225.2359058</v>
@@ -2995,7 +2995,7 @@
         <v>-224.66670092</v>
       </c>
       <c r="H80" t="n">
-        <v>-225.2395525182628</v>
+        <v>-225.234778067007</v>
       </c>
     </row>
     <row r="81">
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-0.5691881866881022</v>
+        <v>-0.5691825730547022</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.5704895257949829</v>
+        <v>-0.5644986033439636</v>
       </c>
       <c r="F81" t="n">
         <v>-225.22658603</v>
@@ -3027,7 +3027,7 @@
         <v>-224.65740448</v>
       </c>
       <c r="H81" t="n">
-        <v>-225.227894005795</v>
+        <v>-225.221903083344</v>
       </c>
     </row>
     <row r="82">
@@ -3047,10 +3047,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-0.6040694579379378</v>
+        <v>-0.6040760475747211</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.5898962020874023</v>
+        <v>-0.6088657379150391</v>
       </c>
       <c r="F82" t="n">
         <v>-225.1676699</v>
@@ -3059,7 +3059,7 @@
         <v>-224.56359669</v>
       </c>
       <c r="H82" t="n">
-        <v>-225.1534928920874</v>
+        <v>-225.172462427915</v>
       </c>
     </row>
     <row r="83">
@@ -3079,10 +3079,10 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-0.5881153127591841</v>
+        <v>-0.5881248351748689</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.5926474332809448</v>
+        <v>-0.5901194214820862</v>
       </c>
       <c r="F83" t="n">
         <v>-225.19575004</v>
@@ -3091,7 +3091,7 @@
         <v>-224.60762322</v>
       </c>
       <c r="H83" t="n">
-        <v>-225.2002706532809</v>
+        <v>-225.1977426414821</v>
       </c>
     </row>
     <row r="84">
@@ -3111,10 +3111,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-0.5876583122227589</v>
+        <v>-0.5876675608343835</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5897614359855652</v>
+        <v>-0.5909149646759033</v>
       </c>
       <c r="F84" t="n">
         <v>-225.19735919</v>
@@ -3123,7 +3123,7 @@
         <v>-224.60969056</v>
       </c>
       <c r="H84" t="n">
-        <v>-225.1994519959856</v>
+        <v>-225.2006055246759</v>
       </c>
     </row>
     <row r="85">
@@ -3143,10 +3143,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-0.5763578604990589</v>
+        <v>-0.5763516314343988</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.5751008987426758</v>
+        <v>-0.5763965845108032</v>
       </c>
       <c r="F85" t="n">
         <v>-225.22509921</v>
@@ -3155,7 +3155,7 @@
         <v>-224.6487474</v>
       </c>
       <c r="H85" t="n">
-        <v>-225.2238482987427</v>
+        <v>-225.2251439845108</v>
       </c>
     </row>
     <row r="86">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-0.5997306757948224</v>
+        <v>-0.599731640040633</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.6021395325660706</v>
+        <v>-0.600570023059845</v>
       </c>
       <c r="F86" t="n">
         <v>-225.17097059</v>
@@ -3187,7 +3187,7 @@
         <v>-224.57123821</v>
       </c>
       <c r="H86" t="n">
-        <v>-225.1733777425661</v>
+        <v>-225.1718082330598</v>
       </c>
     </row>
     <row r="87">
@@ -3210,7 +3210,7 @@
         <v>-0.5777246109955529</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.5773125886917114</v>
+        <v>-0.5782335996627808</v>
       </c>
       <c r="F87" t="n">
         <v>-225.22451688</v>
@@ -3219,7 +3219,7 @@
         <v>-224.6467904</v>
       </c>
       <c r="H87" t="n">
-        <v>-225.2241029886917</v>
+        <v>-225.2250239996628</v>
       </c>
     </row>
     <row r="88">
@@ -3242,7 +3242,7 @@
         <v>-0.5784237868592167</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.5733901262283325</v>
+        <v>-0.5717008113861084</v>
       </c>
       <c r="F88" t="n">
         <v>-225.22375054</v>
@@ -3251,7 +3251,7 @@
         <v>-224.64532676</v>
       </c>
       <c r="H88" t="n">
-        <v>-225.2187168862283</v>
+        <v>-225.2170275713861</v>
       </c>
     </row>
     <row r="89">
@@ -3271,10 +3271,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-0.6005120153706234</v>
+        <v>-0.6005084466254313</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.5975148677825928</v>
+        <v>-0.6059534549713135</v>
       </c>
       <c r="F89" t="n">
         <v>-225.16997257</v>
@@ -3283,7 +3283,7 @@
         <v>-224.56946646</v>
       </c>
       <c r="H89" t="n">
-        <v>-225.1669813277826</v>
+        <v>-225.1754199149713</v>
       </c>
     </row>
     <row r="90">
@@ -3306,7 +3306,7 @@
         <v>-0.5970321725718652</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.5966233015060425</v>
+        <v>-0.6019312143325806</v>
       </c>
       <c r="F90" t="n">
         <v>-225.1761134</v>
@@ -3315,7 +3315,7 @@
         <v>-224.57908368</v>
       </c>
       <c r="H90" t="n">
-        <v>-225.175706981506</v>
+        <v>-225.1810148943326</v>
       </c>
     </row>
     <row r="91">
@@ -3335,10 +3335,10 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-0.5874319454375911</v>
+        <v>-0.5874410610648383</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.5888393521308899</v>
+        <v>-0.5878646373748779</v>
       </c>
       <c r="F91" t="n">
         <v>-225.19815532</v>
@@ -3347,7 +3347,7 @@
         <v>-224.61071306</v>
       </c>
       <c r="H91" t="n">
-        <v>-225.1995524121309</v>
+        <v>-225.1985776973749</v>
       </c>
     </row>
     <row r="92">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.5878872018546981</v>
+        <v>-0.5878965894392247</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.5893712043762207</v>
+        <v>-0.5888533592224121</v>
       </c>
       <c r="F92" t="n">
         <v>-225.19655715</v>
@@ -3379,7 +3379,7 @@
         <v>-224.60866053</v>
       </c>
       <c r="H92" t="n">
-        <v>-225.1980317343762</v>
+        <v>-225.1975138892224</v>
       </c>
     </row>
     <row r="93">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-0.5691824916403343</v>
+        <v>-0.5691809386649642</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.5689765214920044</v>
+        <v>-0.5683563947677612</v>
       </c>
       <c r="F93" t="n">
         <v>-225.23484273</v>
@@ -3411,7 +3411,7 @@
         <v>-224.6656611</v>
       </c>
       <c r="H93" t="n">
-        <v>-225.234637621492</v>
+        <v>-225.2340174947678</v>
       </c>
     </row>
     <row r="94">
@@ -3434,7 +3434,7 @@
         <v>-0.5932160712008248</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.5947118997573853</v>
+        <v>-0.5924499034881592</v>
       </c>
       <c r="F94" t="n">
         <v>-225.18736325</v>
@@ -3443,7 +3443,7 @@
         <v>-224.59414962</v>
       </c>
       <c r="H94" t="n">
-        <v>-225.1888615197574</v>
+        <v>-225.1865995234882</v>
       </c>
     </row>
     <row r="95">
@@ -3463,10 +3463,10 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>-0.5692541423653383</v>
+        <v>-0.5692532954185083</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.5719860792160034</v>
+        <v>-0.5692033171653748</v>
       </c>
       <c r="F95" t="n">
         <v>-225.23731494</v>
@@ -3475,7 +3475,7 @@
         <v>-224.66806279</v>
       </c>
       <c r="H95" t="n">
-        <v>-225.240048869216</v>
+        <v>-225.2372661071654</v>
       </c>
     </row>
     <row r="96">
@@ -3498,7 +3498,7 @@
         <v>-0.5789509340258449</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.574734091758728</v>
+        <v>-0.5767624378204346</v>
       </c>
       <c r="F96" t="n">
         <v>-225.22298303</v>
@@ -3507,7 +3507,7 @@
         <v>-224.64403028</v>
       </c>
       <c r="H96" t="n">
-        <v>-225.2187643717587</v>
+        <v>-225.2207927178204</v>
       </c>
     </row>
     <row r="97">
@@ -3527,10 +3527,10 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-0.6031011502189056</v>
+        <v>-0.6031097129552718</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.6072936058044434</v>
+        <v>-0.5990785360336304</v>
       </c>
       <c r="F97" t="n">
         <v>-225.16795755</v>
@@ -3539,7 +3539,7 @@
         <v>-224.56484701</v>
       </c>
       <c r="H97" t="n">
-        <v>-225.1721406158044</v>
+        <v>-225.1639255460336</v>
       </c>
     </row>
     <row r="98">
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>-0.5947604324256859</v>
+        <v>-0.5947612870855823</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.5976337194442749</v>
+        <v>-0.5892283916473389</v>
       </c>
       <c r="F98" t="n">
         <v>-225.18237019</v>
@@ -3571,7 +3571,7 @@
         <v>-224.58760929</v>
       </c>
       <c r="H98" t="n">
-        <v>-225.1852430094443</v>
+        <v>-225.1768376816473</v>
       </c>
     </row>
     <row r="99">
@@ -3594,7 +3594,7 @@
         <v>-0.5905148817867945</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.5913954973220825</v>
+        <v>-0.5943355560302734</v>
       </c>
       <c r="F99" t="n">
         <v>-225.1965113</v>
@@ -3603,7 +3603,7 @@
         <v>-224.60599169</v>
       </c>
       <c r="H99" t="n">
-        <v>-225.1973871873221</v>
+        <v>-225.2003272460303</v>
       </c>
     </row>
     <row r="100">
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-0.58149896615861</v>
+        <v>-0.5815077536809361</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.5825492143630981</v>
+        <v>-0.5863957405090332</v>
       </c>
       <c r="F100" t="n">
         <v>-225.21744501</v>
@@ -3635,7 +3635,7 @@
         <v>-224.6359393</v>
       </c>
       <c r="H100" t="n">
-        <v>-225.2184885143631</v>
+        <v>-225.222335040509</v>
       </c>
     </row>
     <row r="101">
@@ -3658,7 +3658,7 @@
         <v>-0.591004340344393</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.5911861658096313</v>
+        <v>-0.5916239023208618</v>
       </c>
       <c r="F101" t="n">
         <v>-225.19487608</v>
@@ -3667,7 +3667,7 @@
         <v>-224.60387314</v>
       </c>
       <c r="H101" t="n">
-        <v>-225.1950593058096</v>
+        <v>-225.1954970423209</v>
       </c>
     </row>
     <row r="102">
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-0.6045664320990596</v>
+        <v>-0.6045720758603471</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.6061209440231323</v>
+        <v>-0.6059896945953369</v>
       </c>
       <c r="F102" t="n">
         <v>-225.16760655</v>
@@ -3699,7 +3699,7 @@
         <v>-224.56303567</v>
       </c>
       <c r="H102" t="n">
-        <v>-225.1691566140231</v>
+        <v>-225.1690253645953</v>
       </c>
     </row>
     <row r="103">
@@ -3722,7 +3722,7 @@
         <v>-0.5927125192195388</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.591184139251709</v>
+        <v>-0.5907753705978394</v>
       </c>
       <c r="F103" t="n">
         <v>-225.18904312</v>
@@ -3731,7 +3731,7 @@
         <v>-224.59632856</v>
       </c>
       <c r="H103" t="n">
-        <v>-225.1875126992517</v>
+        <v>-225.1871039305978</v>
       </c>
     </row>
     <row r="104">
@@ -3754,7 +3754,7 @@
         <v>-0.579309306554797</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.5790802240371704</v>
+        <v>-0.5824257135391235</v>
       </c>
       <c r="F104" t="n">
         <v>-225.22238394</v>
@@ -3763,7 +3763,7 @@
         <v>-224.64307549</v>
       </c>
       <c r="H104" t="n">
-        <v>-225.2221557140372</v>
+        <v>-225.2255012035391</v>
       </c>
     </row>
     <row r="105">
@@ -3786,7 +3786,7 @@
         <v>-0.596428724630808</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.5998375415802002</v>
+        <v>-0.6007777452468872</v>
       </c>
       <c r="F105" t="n">
         <v>-225.17760571</v>
@@ -3795,7 +3795,7 @@
         <v>-224.58117432</v>
       </c>
       <c r="H105" t="n">
-        <v>-225.1810118615802</v>
+        <v>-225.1819520652469</v>
       </c>
     </row>
     <row r="106">
@@ -3818,7 +3818,7 @@
         <v>-0.579666612853148</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.5797394514083862</v>
+        <v>-0.5817587375640869</v>
       </c>
       <c r="F106" t="n">
         <v>-225.22171743</v>
@@ -3827,7 +3827,7 @@
         <v>-224.64205049</v>
       </c>
       <c r="H106" t="n">
-        <v>-225.2217899414084</v>
+        <v>-225.2238092275641</v>
       </c>
     </row>
     <row r="107">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-0.6001141160815653</v>
+        <v>-0.6001129070979599</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.6038573980331421</v>
+        <v>-0.6006162166595459</v>
       </c>
       <c r="F107" t="n">
         <v>-225.17045389</v>
@@ -3859,7 +3859,7 @@
         <v>-224.57034045</v>
       </c>
       <c r="H107" t="n">
-        <v>-225.1741978480331</v>
+        <v>-225.1709566666595</v>
       </c>
     </row>
     <row r="108">
@@ -3879,10 +3879,10 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-0.5692361008853053</v>
+        <v>-0.5692351700091254</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.5767366886138916</v>
+        <v>-0.5670667886734009</v>
       </c>
       <c r="F108" t="n">
         <v>-225.23687033</v>
@@ -3891,7 +3891,7 @@
         <v>-224.66763574</v>
       </c>
       <c r="H108" t="n">
-        <v>-225.2443724286139</v>
+        <v>-225.2347025286734</v>
       </c>
     </row>
     <row r="109">
@@ -3911,10 +3911,10 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-0.5826377140298926</v>
+        <v>-0.5826551965526878</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.5713269710540771</v>
+        <v>-0.5822458267211914</v>
       </c>
       <c r="F109" t="n">
         <v>-225.21420493</v>
@@ -3923,7 +3923,7 @@
         <v>-224.63155185</v>
       </c>
       <c r="H109" t="n">
-        <v>-225.2028788210541</v>
+        <v>-225.2137976767212</v>
       </c>
     </row>
     <row r="110">
@@ -3943,10 +3943,10 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-0.6026356497611476</v>
+        <v>-0.6026452540016446</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.6016730666160583</v>
+        <v>-0.6004579067230225</v>
       </c>
       <c r="F110" t="n">
         <v>-225.16817842</v>
@@ -3955,7 +3955,7 @@
         <v>-224.56553186</v>
       </c>
       <c r="H110" t="n">
-        <v>-225.1672049266161</v>
+        <v>-225.165989766723</v>
       </c>
     </row>
     <row r="111">
@@ -3978,7 +3978,7 @@
         <v>-0.591489329458406</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.5926356315612793</v>
+        <v>-0.5926939249038696</v>
       </c>
       <c r="F111" t="n">
         <v>-225.19322371</v>
@@ -3987,7 +3987,7 @@
         <v>-224.60173571</v>
       </c>
       <c r="H111" t="n">
-        <v>-225.1943713415613</v>
+        <v>-225.1944296349039</v>
       </c>
     </row>
     <row r="112">
@@ -4007,10 +4007,10 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>-0.5863307259302888</v>
+        <v>-0.5863391439841533</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.5841175317764282</v>
+        <v>-0.5865885019302368</v>
       </c>
       <c r="F112" t="n">
         <v>-225.20204021</v>
@@ -4019,7 +4019,7 @@
         <v>-224.61570233</v>
       </c>
       <c r="H112" t="n">
-        <v>-225.1998198617764</v>
+        <v>-225.2022908319302</v>
       </c>
     </row>
     <row r="113">
@@ -4039,10 +4039,10 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-0.5765338901577702</v>
+        <v>-0.5765255411855402</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.5750596523284912</v>
+        <v>-0.578041672706604</v>
       </c>
       <c r="F113" t="n">
         <v>-225.22509969</v>
@@ -4051,7 +4051,7 @@
         <v>-224.64857709</v>
       </c>
       <c r="H113" t="n">
-        <v>-225.2236367423285</v>
+        <v>-225.2266187627066</v>
       </c>
     </row>
     <row r="114">
@@ -4074,7 +4074,7 @@
         <v>-0.5770377376725375</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.5806461572647095</v>
+        <v>-0.5762178897857666</v>
       </c>
       <c r="F114" t="n">
         <v>-225.22497297</v>
@@ -4083,7 +4083,7 @@
         <v>-224.64793641</v>
       </c>
       <c r="H114" t="n">
-        <v>-225.2285825672647</v>
+        <v>-225.2241542997858</v>
       </c>
     </row>
     <row r="115">
@@ -4103,10 +4103,10 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>-0.5865466280103167</v>
+        <v>-0.5865551780530762</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.5862843990325928</v>
+        <v>-0.5866774320602417</v>
       </c>
       <c r="F115" t="n">
         <v>-225.20127671</v>
@@ -4115,7 +4115,7 @@
         <v>-224.61472154</v>
       </c>
       <c r="H115" t="n">
-        <v>-225.2010059390326</v>
+        <v>-225.2013989720602</v>
       </c>
     </row>
     <row r="116">
@@ -4135,10 +4135,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>-0.5828415246329393</v>
+        <v>-0.5828492824678315</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.5794991254806519</v>
+        <v>-0.5833922624588013</v>
       </c>
       <c r="F116" t="n">
         <v>-225.21362008</v>
@@ -4147,7 +4147,7 @@
         <v>-224.63077225</v>
       </c>
       <c r="H116" t="n">
-        <v>-225.2102713754807</v>
+        <v>-225.2141645124588</v>
       </c>
     </row>
     <row r="117">
@@ -4167,10 +4167,10 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-0.5869916758076469</v>
+        <v>-0.5870005053233414</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.5885626077651978</v>
+        <v>-0.5881457328796387</v>
       </c>
       <c r="F117" t="n">
         <v>-225.19972963</v>
@@ -4179,7 +4179,7 @@
         <v>-224.61273431</v>
       </c>
       <c r="H117" t="n">
-        <v>-225.2012969177652</v>
+        <v>-225.2008800428796</v>
       </c>
     </row>
     <row r="118">
@@ -4202,7 +4202,7 @@
         <v>-0.5766938231344068</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.5738765597343445</v>
+        <v>-0.5787792205810547</v>
       </c>
       <c r="F118" t="n">
         <v>-225.22507858</v>
@@ -4211,7 +4211,7 @@
         <v>-224.64838497</v>
       </c>
       <c r="H118" t="n">
-        <v>-225.2222615297343</v>
+        <v>-225.227164190581</v>
       </c>
     </row>
     <row r="119">
@@ -4234,7 +4234,7 @@
         <v>-0.592220697292408</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.5905681848526001</v>
+        <v>-0.5920550227165222</v>
       </c>
       <c r="F119" t="n">
         <v>-225.1907211</v>
@@ -4243,7 +4243,7 @@
         <v>-224.59850018</v>
       </c>
       <c r="H119" t="n">
-        <v>-225.1890683648526</v>
+        <v>-225.1905552027165</v>
       </c>
     </row>
     <row r="120">
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-0.5811240276303391</v>
+        <v>-0.5811333917301361</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.5803326964378357</v>
+        <v>-0.5808544158935547</v>
       </c>
       <c r="F120" t="n">
         <v>-225.21841744</v>
@@ -4275,7 +4275,7 @@
         <v>-224.63728652</v>
       </c>
       <c r="H120" t="n">
-        <v>-225.2176192164378</v>
+        <v>-225.2181409358936</v>
       </c>
     </row>
     <row r="121">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>-0.5993600596774508</v>
+        <v>-0.5993630147684386</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.6009225845336914</v>
+        <v>-0.5999912023544312</v>
       </c>
       <c r="F121" t="n">
         <v>-225.17152036</v>
@@ -4307,7 +4307,7 @@
         <v>-224.57215858</v>
       </c>
       <c r="H121" t="n">
-        <v>-225.1730811645337</v>
+        <v>-225.1721497823544</v>
       </c>
     </row>
     <row r="122">
@@ -4327,10 +4327,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>-0.5836317151742989</v>
+        <v>-0.5836392671005244</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.587809681892395</v>
+        <v>-0.5875622630119324</v>
       </c>
       <c r="F122" t="n">
         <v>-225.21116345</v>
@@ -4339,7 +4339,7 @@
         <v>-224.62752622</v>
       </c>
       <c r="H122" t="n">
-        <v>-225.2153359018924</v>
+        <v>-225.2150884830119</v>
       </c>
     </row>
     <row r="123">
@@ -4359,10 +4359,10 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-0.6009183701733732</v>
+        <v>-0.6009122568351035</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.5990933179855347</v>
+        <v>-0.6077544093132019</v>
       </c>
       <c r="F123" t="n">
         <v>-225.16952906</v>
@@ -4371,7 +4371,7 @@
         <v>-224.5686189</v>
       </c>
       <c r="H123" t="n">
-        <v>-225.1677122179855</v>
+        <v>-225.1763733093132</v>
       </c>
     </row>
     <row r="124">
@@ -4391,10 +4391,10 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>-0.5693140784336734</v>
+        <v>-0.5693041546002735</v>
       </c>
       <c r="E124" t="n">
-        <v>-0.5690028667449951</v>
+        <v>-0.5676724314689636</v>
       </c>
       <c r="F124" t="n">
         <v>-225.2194816</v>
@@ -4403,7 +4403,7 @@
         <v>-224.65017482</v>
       </c>
       <c r="H124" t="n">
-        <v>-225.219177686745</v>
+        <v>-225.217847251469</v>
       </c>
     </row>
     <row r="125">
@@ -4426,7 +4426,7 @@
         <v>-0.5786002162720634</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.5732629299163818</v>
+        <v>-0.5750553607940674</v>
       </c>
       <c r="F125" t="n">
         <v>-225.22351256</v>
@@ -4435,7 +4435,7 @@
         <v>-224.64491309</v>
       </c>
       <c r="H125" t="n">
-        <v>-225.2181760199164</v>
+        <v>-225.2199684507941</v>
       </c>
     </row>
     <row r="126">
@@ -4458,7 +4458,7 @@
         <v>-0.5780756070777733</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.5774918794631958</v>
+        <v>-0.5787975192070007</v>
       </c>
       <c r="F126" t="n">
         <v>-225.2241713</v>
@@ -4467,7 +4467,7 @@
         <v>-224.64609719</v>
       </c>
       <c r="H126" t="n">
-        <v>-225.2235890694632</v>
+        <v>-225.224894709207</v>
       </c>
     </row>
     <row r="127">
@@ -4487,10 +4487,10 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-0.5807504470533036</v>
+        <v>-0.5807604295378826</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.5789762735366821</v>
+        <v>-0.5827354192733765</v>
       </c>
       <c r="F127" t="n">
         <v>-225.21933405</v>
@@ -4499,7 +4499,7 @@
         <v>-224.63857322</v>
       </c>
       <c r="H127" t="n">
-        <v>-225.2175494935367</v>
+        <v>-225.2213086392734</v>
       </c>
     </row>
     <row r="128">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-0.607767873659226</v>
+        <v>-0.607768661758552</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.6042128801345825</v>
+        <v>-0.6013729572296143</v>
       </c>
       <c r="F128" t="n">
         <v>-225.16844913</v>
@@ -4531,7 +4531,7 @@
         <v>-224.56068143</v>
       </c>
       <c r="H128" t="n">
-        <v>-225.1648943101346</v>
+        <v>-225.1620543872296</v>
       </c>
     </row>
     <row r="129">
@@ -4554,7 +4554,7 @@
         <v>-0.592960278021837</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.5936877131462097</v>
+        <v>-0.5911038517951965</v>
       </c>
       <c r="F129" t="n">
         <v>-225.18820323</v>
@@ -4563,7 +4563,7 @@
         <v>-224.59523998</v>
       </c>
       <c r="H129" t="n">
-        <v>-225.1889276931462</v>
+        <v>-225.1863438317952</v>
       </c>
     </row>
     <row r="130">
@@ -4583,10 +4583,10 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-0.5846415207581095</v>
+        <v>-0.5846505096074912</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.5859147906303406</v>
+        <v>-0.5846258997917175</v>
       </c>
       <c r="F130" t="n">
         <v>-225.20784534</v>
@@ -4595,7 +4595,7 @@
         <v>-224.6231954</v>
       </c>
       <c r="H130" t="n">
-        <v>-225.2091101906303</v>
+        <v>-225.2078212997917</v>
       </c>
     </row>
     <row r="131">
@@ -4615,10 +4615,10 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-0.569238810274304</v>
+        <v>-0.5692311839881039</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.5698884725570679</v>
+        <v>-0.5709136724472046</v>
       </c>
       <c r="F131" t="n">
         <v>-225.22318165</v>
@@ -4627,7 +4627,7 @@
         <v>-224.65394991</v>
       </c>
       <c r="H131" t="n">
-        <v>-225.2238383825571</v>
+        <v>-225.2248635824472</v>
       </c>
     </row>
     <row r="132">
@@ -4647,10 +4647,10 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>-0.5830348192169282</v>
+        <v>-0.5830425029359237</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.5817259550094604</v>
+        <v>-0.585332989692688</v>
       </c>
       <c r="F132" t="n">
         <v>-225.21302327</v>
@@ -4659,7 +4659,7 @@
         <v>-224.62997984</v>
       </c>
       <c r="H132" t="n">
-        <v>-225.2117057950095</v>
+        <v>-225.2153128296927</v>
       </c>
     </row>
     <row r="133">
@@ -4682,7 +4682,7 @@
         <v>-0.5961399629758344</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.5928977727890015</v>
+        <v>-0.5966753959655762</v>
       </c>
       <c r="F133" t="n">
         <v>-225.17837364</v>
@@ -4691,7 +4691,7 @@
         <v>-224.58223241</v>
       </c>
       <c r="H133" t="n">
-        <v>-225.175130182789</v>
+        <v>-225.1789078059656</v>
       </c>
     </row>
     <row r="134">
@@ -4714,7 +4714,7 @@
         <v>-0.5773801621542315</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.5791641473770142</v>
+        <v>-0.575935959815979</v>
       </c>
       <c r="F134" t="n">
         <v>-225.22478494</v>
@@ -4723,7 +4723,7 @@
         <v>-224.64740426</v>
       </c>
       <c r="H134" t="n">
-        <v>-225.226568407377</v>
+        <v>-225.223340219816</v>
       </c>
     </row>
     <row r="135">
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>-0.5756691355387611</v>
+        <v>-0.5756718003332612</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.5749117732048035</v>
+        <v>-0.568157970905304</v>
       </c>
       <c r="F135" t="n">
         <v>-225.22487608</v>
@@ -4755,7 +4755,7 @@
         <v>-224.6492054</v>
       </c>
       <c r="H135" t="n">
-        <v>-225.2241171732048</v>
+        <v>-225.2173633709053</v>
       </c>
     </row>
     <row r="136">
@@ -4775,10 +4775,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-0.6055935164847924</v>
+        <v>-0.605597393992936</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.5948824882507324</v>
+        <v>-0.599291205406189</v>
       </c>
       <c r="F136" t="n">
         <v>-225.16764929</v>
@@ -4787,7 +4787,7 @@
         <v>-224.56205122</v>
       </c>
       <c r="H136" t="n">
-        <v>-225.1569337082507</v>
+        <v>-225.1613424254062</v>
       </c>
     </row>
     <row r="137">
@@ -4810,7 +4810,7 @@
         <v>-0.579486413963241</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.5809296369552612</v>
+        <v>-0.5906848907470703</v>
       </c>
       <c r="F137" t="n">
         <v>-225.22205901</v>
@@ -4819,7 +4819,7 @@
         <v>-224.64257167</v>
       </c>
       <c r="H137" t="n">
-        <v>-225.2235013069553</v>
+        <v>-225.2332565607471</v>
       </c>
     </row>
     <row r="138">
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>-0.5838371656026463</v>
+        <v>-0.5838367256351467</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.5837972164154053</v>
+        <v>-0.5848244428634644</v>
       </c>
       <c r="F138" t="n">
         <v>-225.21052102</v>
@@ -4851,7 +4851,7 @@
         <v>-224.62668365</v>
       </c>
       <c r="H138" t="n">
-        <v>-225.2104808664154</v>
+        <v>-225.2115080928635</v>
       </c>
     </row>
     <row r="139">
@@ -4871,10 +4871,10 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>-0.569218562116524</v>
+        <v>-0.569217507601534</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.575870156288147</v>
+        <v>-0.56956946849823</v>
       </c>
       <c r="F139" t="n">
         <v>-225.23640067</v>
@@ -4883,7 +4883,7 @@
         <v>-224.66718163</v>
       </c>
       <c r="H139" t="n">
-        <v>-225.2430517862881</v>
+        <v>-225.2367510984982</v>
       </c>
     </row>
     <row r="140">
@@ -4903,10 +4903,10 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>-0.5872074713756806</v>
+        <v>-0.5872164361094232</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.5887532830238342</v>
+        <v>-0.5880694985389709</v>
       </c>
       <c r="F140" t="n">
         <v>-225.19894562</v>
@@ -4915,7 +4915,7 @@
         <v>-224.6117277</v>
       </c>
       <c r="H140" t="n">
-        <v>-225.2004809830238</v>
+        <v>-225.199797198539</v>
       </c>
     </row>
     <row r="141">
@@ -4935,10 +4935,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>-0.5950318847987134</v>
+        <v>-0.595032043178074</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.5968607068061829</v>
+        <v>-0.5929220914840698</v>
       </c>
       <c r="F141" t="n">
         <v>-225.18155396</v>
@@ -4947,7 +4947,7 @@
         <v>-224.58652517</v>
       </c>
       <c r="H141" t="n">
-        <v>-225.1833858768062</v>
+        <v>-225.1794472614841</v>
       </c>
     </row>
     <row r="142">
@@ -4970,7 +4970,7 @@
         <v>-0.5805761909956104</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.5806689262390137</v>
+        <v>-0.5816507339477539</v>
       </c>
       <c r="F142" t="n">
         <v>-225.21976977</v>
@@ -4979,7 +4979,7 @@
         <v>-224.63919329</v>
       </c>
       <c r="H142" t="n">
-        <v>-225.219862216239</v>
+        <v>-225.2208440239478</v>
       </c>
     </row>
     <row r="143">
@@ -4999,10 +4999,10 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>-0.5822556868827193</v>
+        <v>-0.5822660061063745</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.5820305347442627</v>
+        <v>-0.5811415314674377</v>
       </c>
       <c r="F143" t="n">
         <v>-225.21533661</v>
@@ -5011,7 +5011,7 @@
         <v>-224.63307005</v>
       </c>
       <c r="H143" t="n">
-        <v>-225.2151005847442</v>
+        <v>-225.2142115814674</v>
       </c>
     </row>
     <row r="144">
@@ -5031,10 +5031,10 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-0.5856878963559825</v>
+        <v>-0.5856985695389914</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.5844907760620117</v>
+        <v>-0.5860676765441895</v>
       </c>
       <c r="F144" t="n">
         <v>-225.20428198</v>
@@ -5043,7 +5043,7 @@
         <v>-224.61858761</v>
       </c>
       <c r="H144" t="n">
-        <v>-225.203078386062</v>
+        <v>-225.2046552865442</v>
       </c>
     </row>
     <row r="145">
@@ -5063,10 +5063,10 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-0.5693437793566725</v>
+        <v>-0.5693430779678115</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.5682875514030457</v>
+        <v>-0.5639873743057251</v>
       </c>
       <c r="F145" t="n">
         <v>-225.23882867</v>
@@ -5075,7 +5075,7 @@
         <v>-224.66948815</v>
       </c>
       <c r="H145" t="n">
-        <v>-225.2377757014031</v>
+        <v>-225.2334755243057</v>
       </c>
     </row>
     <row r="146">
@@ -5098,7 +5098,7 @@
         <v>-0.5919755471449308</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.5945893526077271</v>
+        <v>-0.5923203229904175</v>
       </c>
       <c r="F146" t="n">
         <v>-225.19155784</v>
@@ -5107,7 +5107,7 @@
         <v>-224.59958213</v>
       </c>
       <c r="H146" t="n">
-        <v>-225.1941714826077</v>
+        <v>-225.1919024529904</v>
       </c>
     </row>
     <row r="147">
@@ -5127,10 +5127,10 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-0.581676736858896</v>
+        <v>-0.5816922210593929</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.5820837616920471</v>
+        <v>-0.5808653831481934</v>
       </c>
       <c r="F147" t="n">
         <v>-225.21693822</v>
@@ -5139,7 +5139,7 @@
         <v>-224.6352435</v>
       </c>
       <c r="H147" t="n">
-        <v>-225.217327261692</v>
+        <v>-225.2161088831482</v>
       </c>
     </row>
     <row r="148">
@@ -5162,7 +5162,7 @@
         <v>-0.5907635392463619</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.5897733569145203</v>
+        <v>-0.5938608050346375</v>
       </c>
       <c r="F148" t="n">
         <v>-225.1956961</v>
@@ -5171,7 +5171,7 @@
         <v>-224.60493489</v>
       </c>
       <c r="H148" t="n">
-        <v>-225.1947082469145</v>
+        <v>-225.1987956950346</v>
       </c>
     </row>
     <row r="149">
@@ -5191,10 +5191,10 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-0.6066586862734658</v>
+        <v>-0.6066609525554877</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.6070514917373657</v>
+        <v>-0.6031898260116577</v>
       </c>
       <c r="F149" t="n">
         <v>-225.16792394</v>
@@ -5203,7 +5203,7 @@
         <v>-224.56126272</v>
       </c>
       <c r="H149" t="n">
-        <v>-225.1683142117374</v>
+        <v>-225.1644525460117</v>
       </c>
     </row>
     <row r="150">
@@ -5223,10 +5223,10 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-0.5989973839328663</v>
+        <v>-0.5990021632782521</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.5990654230117798</v>
+        <v>-0.6025803089141846</v>
       </c>
       <c r="F150" t="n">
         <v>-225.17210097</v>
@@ -5235,7 +5235,7 @@
         <v>-224.5730992</v>
       </c>
       <c r="H150" t="n">
-        <v>-225.1721646230118</v>
+        <v>-225.1756795089142</v>
       </c>
     </row>
     <row r="151">
@@ -5255,10 +5255,10 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-0.5986461227624239</v>
+        <v>-0.5986525780567937</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.5980137586593628</v>
+        <v>-0.5997560024261475</v>
       </c>
       <c r="F151" t="n">
         <v>-225.17271054</v>
@@ -5267,7 +5267,7 @@
         <v>-224.57405876</v>
       </c>
       <c r="H151" t="n">
-        <v>-225.1720725186594</v>
+        <v>-225.1738147624262</v>
       </c>
     </row>
     <row r="152">
@@ -5287,10 +5287,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-0.5753223536685278</v>
+        <v>-0.5753297099087278</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.5727579593658447</v>
+        <v>-0.5746777653694153</v>
       </c>
       <c r="F152" t="n">
         <v>-225.22462664</v>
@@ -5299,7 +5299,7 @@
         <v>-224.64929662</v>
       </c>
       <c r="H152" t="n">
-        <v>-225.2220545793658</v>
+        <v>-225.2239743853694</v>
       </c>
     </row>
     <row r="153">
@@ -5319,10 +5319,10 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>-0.5842417446432653</v>
+        <v>-0.5842458620348561</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.5862554311752319</v>
+        <v>-0.5861274600028992</v>
       </c>
       <c r="F153" t="n">
         <v>-225.20920388</v>
@@ -5331,7 +5331,7 @@
         <v>-224.62496269</v>
       </c>
       <c r="H153" t="n">
-        <v>-225.2112181211752</v>
+        <v>-225.2110901500029</v>
       </c>
     </row>
   </sheetData>
